--- a/biology/Médecine/Charles-Emmanuel_Sédillot/Charles-Emmanuel_Sédillot.xlsx
+++ b/biology/Médecine/Charles-Emmanuel_Sédillot/Charles-Emmanuel_Sédillot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles-Emmanuel_S%C3%A9dillot</t>
+          <t>Charles-Emmanuel_Sédillot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles-Emmanuel Sédillot, né à Paris le 18 septembre 1804 et mort à Sainte-Menehould le 29 janvier 1883, est un médecin militaire et un chirurgien français, précurseur de l'asepsie opératoire et promoteur de l'anesthésie au chloroforme[1]. Il est l'auteur de la première gastrostomie chez l'homme, en 1846. Il est professeur au Val-de-Grâce puis à la faculté de médecine de Strasbourg, chirurgien en chef de l'Hôpital militaire et directeur de l'École de médecine militaire de cette ville.  On lui doit l'invention, en 1878, du mot «microbe»[2],[3], consacrée par Émile Littré dans l'édition de 1886 de son Dictionnaire de médecine[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles-Emmanuel Sédillot, né à Paris le 18 septembre 1804 et mort à Sainte-Menehould le 29 janvier 1883, est un médecin militaire et un chirurgien français, précurseur de l'asepsie opératoire et promoteur de l'anesthésie au chloroforme. Il est l'auteur de la première gastrostomie chez l'homme, en 1846. Il est professeur au Val-de-Grâce puis à la faculté de médecine de Strasbourg, chirurgien en chef de l'Hôpital militaire et directeur de l'École de médecine militaire de cette ville.  On lui doit l'invention, en 1878, du mot «microbe» consacrée par Émile Littré dans l'édition de 1886 de son Dictionnaire de médecine.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles-Emmanuel_S%C3%A9dillot</t>
+          <t>Charles-Emmanuel_Sédillot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles-Emmanuel Sédillot[5] est le fils aîné de Jean Jacques Emmanuel Sédillot, orientaliste et astronome, et de Marie-Julie-Anastasie Fossé. Il est le frère de Louis-Pierre-Eugène Sédillot (1808-1875), orientaliste et historien des sciences.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles-Emmanuel Sédillot est le fils aîné de Jean Jacques Emmanuel Sédillot, orientaliste et astronome, et de Marie-Julie-Anastasie Fossé. Il est le frère de Louis-Pierre-Eugène Sédillot (1808-1875), orientaliste et historien des sciences.
 Après de brillantes études à la faculté de Médecine de Paris, dans les hôpitaux d'instruction de Metz et au Val-de-Grâce, il est reçu docteur en médecine en 1829, en soutenant une thèse intitulée Du nerf pneumogastrique et de ses fonctions. Dans un modeste laboratoire, il pratique de nombreuses vivisections et précise le rôle du nerf récurrent. Il débute ensuite une carrière de chirurgien militaire.
-En 1831, il participe à la l'insurrection de la Pologne en qualité de chirurgien sous-aide dans les ambulances polonaises ; il est un temps interné en Autriche après la défaite polonaise. Il sera décoré de la Croix du Mérite militaire. De retour à Paris, il devient chirurgien aide-major au Sixième Dragon. En 1832, à la demande des autorités, il observe avec Larrey une terrible épidémie de choléra à l'hôpital de Picpus[6].
-En 1836, il devient chirurgien-major et professeur au Val-de-Grâce après avoir été agrégé de la Faculté de Paris. Mais il échoue à la chaire de chirurgie de la Faculté de Paris en 1836 contre Blandin. Déçu par cet échec, il s'engage auprès des troupes coloniales d'Afrique du nord et prend part à la deuxième campagne de Constantine[7]. Il fait part de ses observations dans un volume publié en 1838 : Campagne de Constantine de 1837. Il visite les ruines romaines, les sources minérales et observe les traitements des fractures par les autochtones. Il souffrira du paludisme en Algérie tout en poursuivant sa tâche. Revenu à Paris, il échoue une nouvelle fois au concours pour une chaire de médecine opératoire de la faculté de Paris face à Malgaigne en 1839. Il épouse Geneviève Pelletier[8] (1820-1886), le 4 février 1839.
+En 1831, il participe à la l'insurrection de la Pologne en qualité de chirurgien sous-aide dans les ambulances polonaises ; il est un temps interné en Autriche après la défaite polonaise. Il sera décoré de la Croix du Mérite militaire. De retour à Paris, il devient chirurgien aide-major au Sixième Dragon. En 1832, à la demande des autorités, il observe avec Larrey une terrible épidémie de choléra à l'hôpital de Picpus.
+En 1836, il devient chirurgien-major et professeur au Val-de-Grâce après avoir été agrégé de la Faculté de Paris. Mais il échoue à la chaire de chirurgie de la Faculté de Paris en 1836 contre Blandin. Déçu par cet échec, il s'engage auprès des troupes coloniales d'Afrique du nord et prend part à la deuxième campagne de Constantine. Il fait part de ses observations dans un volume publié en 1838 : Campagne de Constantine de 1837. Il visite les ruines romaines, les sources minérales et observe les traitements des fractures par les autochtones. Il souffrira du paludisme en Algérie tout en poursuivant sa tâche. Revenu à Paris, il échoue une nouvelle fois au concours pour une chaire de médecine opératoire de la faculté de Paris face à Malgaigne en 1839. Il épouse Geneviève Pelletier (1820-1886), le 4 février 1839.
 En 1841, il est reçu au concours d'agrégation de la Faculté de médecine de Strasbourg pour la chaire regroupant « pathologie externe, médecine opératoire et clinique chirurgicale ». L'admission d'un chirurgien militaire à ce poste donne lieu à de vives polémiques : la faculté avait décidé de rendre incompatible le titre de professeur à la faculté avec celui de professeur à l'hôpital militaire après le départ de Bégin. En 1850, il est promu au grade de médecin principal de première classe. Il est nommé chirurgien en chef de l'hôpital militaire de Strasbourg en 1856, menant de front ses deux carrières militaire et civile. Enfin, élevé au grade de médecin inspecteur, il est nommé premier directeur de la nouvelle École de médecine militaire entre 1856 et 1869.
-En 1869, il est admis à la retraite. Il assiste à l'annexion de l'Alsace en 1870, mettant fin à l'existence de l'École[9]. Il participe aux ambulances de Haguenau. Il refuse l'offre prussienne de conserver sa chaire de la faculté de médecine, rejoint Nancy où il est nommé professeur honoraire avant de se retirer à Paris.
+En 1869, il est admis à la retraite. Il assiste à l'annexion de l'Alsace en 1870, mettant fin à l'existence de l'École. Il participe aux ambulances de Haguenau. Il refuse l'offre prussienne de conserver sa chaire de la faculté de médecine, rejoint Nancy où il est nommé professeur honoraire avant de se retirer à Paris.
 Souffrant d'une surdité profonde, puis  frappé d'une hémiplégie droite en 1879, il meurt chez l'un de ses enfants à Sainte-Menehould en 1883, à l'âge de 78 ans. Ses obsèques ont lieu à Paris.
 </t>
         </is>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles-Emmanuel_S%C3%A9dillot</t>
+          <t>Charles-Emmanuel_Sédillot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est lui qui a inventé le mot microbe en 1878.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Charles-Emmanuel_S%C3%A9dillot</t>
+          <t>Charles-Emmanuel_Sédillot</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,11 +595,13 @@
           <t>Titres et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est élu correspondant de l'Académie des sciences le 16 mars 1846 (section de médecine et chirurgie) et en devient membre le 24 juin 1872[10]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est élu correspondant de l'Académie des sciences le 16 mars 1846 (section de médecine et chirurgie) et en devient membre le 24 juin 1872. 
 Il est également membre de l'Académie nationale de médecine et de l'Académie Leopoldina depuis 1852.
- Commandeur de la Legion d'honneur[11] (30 décembre 1863).
+ Commandeur de la Legion d'honneur (30 décembre 1863).
 </t>
         </is>
       </c>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Charles-Emmanuel_S%C3%A9dillot</t>
+          <t>Charles-Emmanuel_Sédillot</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Du nerf pneumo-gastrique et de ses fonctions, [Thèse présentée et soutenue à la Faculté de Médecine de Paris, le 29 décembre 1829, pour obtenir le grade de Docteur en médecine], Imprimerie de Didot Le Jeune (Paris), no 274, 1829, Texte intégral.
 Phlébite traumatique, [Thèse pour le Concours d'agrégation à la Faculté de médecine de Paris en 1832], Imprimerie Thuau, 1832.
@@ -659,7 +679,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Charles-Emmanuel_S%C3%A9dillot</t>
+          <t>Charles-Emmanuel_Sédillot</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -677,7 +697,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rue et un square de Paris, dans le 7e arrondissement, et une rue de Strasbourg portent son nom. 
 L'hôpital militaire de Nancy fut baptisé « Hôpital Sédillot », de 1913 à sa dissolution en 1991.
